--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ044Log.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ044Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0839E71F-F092-4EEE-B233-0AD355C57898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F5A82A-A238-4E2F-B879-EE940B3313C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -423,10 +423,6 @@
   </si>
   <si>
     <t>PayLastAmt2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>A:新增，C:異動，X:補件</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -522,54 +518,60 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> :非屬二階段還款
+    <t>V</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukey</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate DESC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ukeyFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukey=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JcicZ044Log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxSeq</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易序號</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukey,TxSeq</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ukeyEq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+X:補件</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>單格空白:非屬二階段還款
 1:屬二階段還款方案之第一階段
 2:屬二階段還款方案之第二階段</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ukey</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate DESC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ukeyFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ukey=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JcicZ044Log</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxSeq</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易序號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ukey,TxSeq</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ukeyEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1163,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1184,7 +1186,7 @@
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>27</v>
@@ -1212,10 +1214,10 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1293,10 +1295,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>19</v>
@@ -1312,10 +1314,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>19</v>
@@ -1326,12 +1328,12 @@
       <c r="F10" s="21"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:10" s="7" customFormat="1">
+    <row r="11" spans="1:10" s="7" customFormat="1" ht="48.6">
       <c r="A11" s="18">
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>18</v>
@@ -1344,7 +1346,7 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="18" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -1368,7 +1370,7 @@
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -1447,7 +1449,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>32</v>
@@ -1469,7 +1471,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>33</v>
@@ -1491,7 +1493,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>34</v>
@@ -1513,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>35</v>
@@ -1535,7 +1537,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>36</v>
@@ -1557,7 +1559,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>37</v>
@@ -1601,7 +1603,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>39</v>
@@ -1736,7 +1738,7 @@
         <v>80</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>67</v>
@@ -1862,7 +1864,7 @@
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="18" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1985,7 +1987,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>55</v>
@@ -2407,7 +2409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -2433,24 +2435,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
